--- a/database/relatorio/PE 90004-2024/DENTARIA_E_DISTRIBUIDORA_HOSPITALAR_PORTO_ALEGRENSE_LTD/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/DENTARIA_E_DISTRIBUIDORA_HOSPITALAR_PORTO_ALEGRENSE_LTD/relacao_itens.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,737 +446,1145 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Forceps adulto n° 150. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+          <t>Forceps adulto n° 150. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 76.0</t>
+          <t>Marca:  SKAY</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 152.0</t>
+          <t>Modelo:  N-150</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 76,00</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 152,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Item: 4 - FÓRCEPS ODONTOLÓGICO (413522)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Forceps adulto n° 151. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 72.45</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 144.9</t>
+          <t>Forceps adulto n° 151. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Item: 5 - FÓRCEPS ODONTOLÓGICO (432452)</t>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  SKAY</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  N-151</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Forceps adulto n° 16. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 72,45</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 144,90</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 2.0</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 77.0</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 154.0</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Item: 5 - FÓRCEPS ODONTOLÓGICO (432452)</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Item: 6 - FÓRCEPS ODONTOLÓGICO (378164)</t>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Forceps adulto n° 16. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Fórceps adulto n° 17. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  SKAY</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  N-16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>Quantidade: 2</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 77.0</t>
+          <t>Valor Unitário: R$ 77,00</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 154.0</t>
+          <t>Valor Total: R$ 154,00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 9 - FÓRCEPS ODONTOLÓGICO (413515)</t>
+          <t>Item: 6 - FÓRCEPS ODONTOLÓGICO (378164)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Forceps adulto n° 23. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+          <t>Fórceps adulto n° 17. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 3.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 73.0</t>
+          <t>Marca:  SKAY</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 219.0</t>
+          <t>Modelo:  N-17</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Item: 10 - FÓRCEPS ODONTOLÓGICO (413512)</t>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 77,00</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 154,00</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Forceps adulto n° 65. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Item: 9 - FÓRCEPS ODONTOLÓGICO (413515)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 77.0</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 154.0</t>
+          <t>Forceps adulto n° 23. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Item: 11 - FÓRCEPS ODONTOLÓGICO (413510)</t>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  SKAY</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  N-23</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Forceps adulto n° 69. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+          <t>Quantidade: 3</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 73,00</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 219,00</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 2.0</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 76.0</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 152.0</t>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Item: 10 - FÓRCEPS ODONTOLÓGICO (413512)</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Item: 12 - FÓRCEPS ODONTOLÓGICO (413532)</t>
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Forceps adulto n° 65. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Forceps infantil n° 21. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  SKAY</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  N-65</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>Quantidade: 2</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 76.0</t>
+          <t>Valor Unitário: R$ 77,00</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 152.0</t>
+          <t>Valor Total: R$ 154,00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Item: 20 - BISTURI - USO ODONTOLOGICO (373552)</t>
+          <t>Item: 11 - FÓRCEPS ODONTOLÓGICO (413510)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Gengivótomo de orban n° ½ aço inoxidável, cabo oco, com diâmetro mínimo de 8mm. A gengivótomo deverá apresentar tratamento térmico integral e homogêneo que lhe garanta resistência à corrosão e conter gravação com clara identificação do fabricante (número do lote), tipo e numeração do instrumento, as junções entre a haste e cabo deverão ser soldadas impedindo penetração de água, sangue ou objetos estranhos. O instrumental deverá estar em blister lacrado.</t>
+          <t>Forceps adulto n° 69. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 3.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 52.0</t>
+          <t>Marca:  SKAY</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 156.0</t>
+          <t>Modelo:  N-69</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Item: 21 - BISTURI - USO ODONTOLOGICO (254362)</t>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 76,00</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 152,00</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Gengivótomo tipo kirkland, no15/16, aço inoxidável, cabo oco, com diâmetro mínimo de 8mm. A gengivótomo deverá apresentar tratamento térmico integral e homogêneo que lhe garanta resistência à corrosão e conter gravação com clara identificação do fabricante (número do lote), tipo e numeração do instrumento, as junções entre a haste e cabo deverão ser soldadas impedindo penetração de água, sangue ou objetos estranhos. O instrumental deverá estar em blister lacrado.</t>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Item: 12 - FÓRCEPS ODONTOLÓGICO (413532)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 3.0</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 45.0</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 135.0</t>
+          <t>Forceps infantil n° 21. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Item: 34 - HIPOCLORITO DE SÓDIO (431304)</t>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  SKAY</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  N-21</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Hipoclorito de sódio, aspecto físico líquido, concentração teor mínimo de 5% de cloro ativo</t>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 76,00</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 152,00</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 30.0</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 29.0</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 870.0</t>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Item: 20 - BISTURI - USO ODONTOLOGICO (373552)</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Item: 45 - CLOREXIDINA DIGLUCONATO (386856)</t>
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Gengivótomo de orban n° ½ aço inoxidável, cabo oco, com diâmetro mínimo de 8mm. A gengivótomo deverá apresentar tratamento térmico integral e homogêneo que lhe garanta resistência à corrosão e conter gravação com clara identificação do fabricante (número do lote), tipo e numeração do instrumento, as junções entre a haste e cabo deverão ser soldadas impedindo penetração de água, sangue ou objetos estranhos. O instrumental deverá estar em blister lacrado.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Lenços umedecidos com clorexidina a 2%, para limpeza e desinfecções de superfícies, com 400 unidades.</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  CLASSIFLEX</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  ORBAN 1/2</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 5.0</t>
+          <t>Quantidade: 3</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 110.0</t>
+          <t>Valor Unitário: R$ 52,00</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 550.0</t>
+          <t>Valor Total: R$ 156,00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Item: 52 - LIMA USO ODONTOLÓGICO (430452)</t>
+          <t>Item: 21 - BISTURI - USO ODONTOLOGICO (254362)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Lima periodontal dunlop no 3-7, aço inoxidável, cabo oco, com diâmetro mínimo de 8mm. A lima deverá apresentar tratamento térmico integral e homogêneo que lhe garanta resistência à corrosão e conter gravação com clara identificação do fabricante (número do lote), tipo e numeração do instrumento, as juncões entre a haste e</t>
+          <t>Gengivótomo tipo kirkland, no15/16, aço inoxidável, cabo oco, com diâmetro mínimo de 8mm. A gengivótomo deverá apresentar tratamento térmico integral e homogêneo que lhe garanta resistência à corrosão e conter gravação com clara identificação do fabricante (número do lote), tipo e numeração do instrumento, as junções entre a haste e cabo deverão ser soldadas impedindo penetração de água, sangue ou objetos estranhos. O instrumental deverá estar em blister lacrado.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 3.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 46.0</t>
+          <t>Marca:  CLASSIFLEX</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 138.0</t>
+          <t>Modelo:  KIRKLAND 15/16</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Item: 67 - MAÇARICO SOLDA (479868)</t>
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 3</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 45,00</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 135,00</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Mini maçarico. Possui travamento e dispositivo de segurança. * leve e portátil com regulagem de chama e acendedor automático. * funcionamento a gás atingindo 1300º c.</t>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Item: 34 - HIPOCLORITO DE SÓDIO (431304)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 87.0</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 174.0</t>
+          <t>Hipoclorito de sódio, aspecto físico líquido, concentração teor mínimo de 5% de cloro ativo</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Item: 72 - ORGANIZADOR CLÍNICO USO ODONTOLÓGICO (446326)</t>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  ASFER</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  SODA CLORADA</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Organizador clínico usoodontológico, materialaço inoxidável, tipo portaalgodão em rolete,característicasadicionais cilíndrico, comtampaorganizador clínico usoodontológico, materialaço inoxidável polido,tipo servido, altura 15cm, diâmetro 15 cm, característicasadicionais tampa derosca, janela deesterilização</t>
+          <t>Quantidade: 30</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 29,00</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 870,00</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 10.0</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 74.0</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 740.0</t>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Item: 45 - CLOREXIDINA DIGLUCONATO (386856)</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Item: 73 - PANELA PRESSÃO (467231)</t>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Lenços umedecidos com clorexidina a 2%, para limpeza e desinfecções de superfícies, com 400 unidades.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Panela elétrica polimerizadora * estrutura em alumínio* pintura eletrostática;* válvula injetora de ar;* válvula de segurança; borracha de silicone para vedação;* manômetro para controle de pressão;* termômetro e termostato inclinado para melhor visualização;* sistema rápido de abertura e fechamento da tampa;* registro de saída de água;* fundo com pés de borracha;* pressão maxíma de trabalho 60 lbs;* acompanha prensa auxiliar, bico injetor de ar e mangueira de saída de água;* suporta 2 muflas; *aquecimento de 0 á 120ºc.</t>
+          <t>UF: Embalagem 1,00 UN</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  KLIN</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  PCT</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>Quantidade: 5</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 2465.0</t>
+          <t>Valor Unitário: R$ 110,00</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 4930.0</t>
+          <t>Valor Total: R$ 550,00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Item: 74 - PANELA PRESSÃO (467231)</t>
+          <t>Item: 52 - LIMA USO ODONTOLÓGICO (430452)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Panela ortodôntica eliminadora de bolhas, estrutura em aluminio. * pintura eletrostática. * borracha de vedação especial. * manômetro para controle de pressão inclinado pata melhor visualização. * sistema rápido de abertura e fechamento da tampa. * válvula injetora de ar, pode ser usada com ou sem água. * não vai ao fogo. * eliminadora de bolhas a pressão 0,5 litro. * dimensões internas: diâmetro 10cm, altura 6cm.</t>
+          <t>Lima periodontal dunlop no 3-7, aço inoxidável, cabo oco, com diâmetro mínimo de 8mm. A lima deverá apresentar tratamento térmico integral e homogêneo que lhe garanta resistência à corrosão e conter gravação com clara identificação do fabricante (número do lote), tipo e numeração do instrumento, as juncões entre a haste e</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 1062.0</t>
+          <t>Marca:  GOLGRAN</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 2124.0</t>
+          <t>Modelo:  DUNLOP-3-7</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Item: 75 - HIDRÓXIDO DE CÁLCIO (416062)</t>
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 3</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 46,00</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 138,00</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Pasta de hidróxido de cálcio c/ pmcc para uso endodôntico, estojo contendo 2 tubetes de 2,7 g de hidróxido de cálcio e 1 tubete com 2,2g de glicerina.</t>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Item: 67 - MAÇARICO SOLDA (479868)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 20.0</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 90.0</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 1800.0</t>
+          <t>Mini maçarico. Possui travamento e dispositivo de segurança. * leve e portátil com regulagem de chama e acendedor automático. * funcionamento a gás atingindo 1300º c.</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Item: 114 - PORTA-AGULHA INSTRUMENTAL (471145)</t>
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  VH</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  MINI MACARICO</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Porta agulha instrumental, modelo: castroviejo, tipo ponta: ponta reta, adicional 1: com trava, comprimento total: cerca de 14 cm, material: titânio, esterilidade: esterilizável</t>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 87,00</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 174,00</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 5.0</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 270.0</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 1350.0</t>
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Item: 72 - ORGANIZADOR CLÍNICO USO ODONTOLÓGICO (446326)</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Item: 122 - PROTETOR RADIOLÓGICO (475747)</t>
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Organizador clínico usoodontológico, materialaço inoxidável, tipo portaalgodão em rolete,característicasadicionais cilíndrico, comtampaorganizador clínico usoodontológico, materialaço inoxidável polido,tipo servido, altura 15cm, diâmetro 15 cm, característicasadicionais tampa derosca, janela deesterilização</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Protetor plumbífero, tipo avental, uso infantil, blindagem equivalência de 0,5mm pb</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  GOLGRAN</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  PORTA ALGODAO</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>Quantidade: 10</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 610.0</t>
+          <t>Valor Unitário: R$ 74,00</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 1220.0</t>
+          <t>Valor Total: R$ 740,00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Item: 142 - SACO PLÁSTICO LIXO (232471)</t>
+          <t>Item: 73 - PANELA PRESSÃO (467231)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Saco de lixo hospitalar 100 litros embalagem 100 unidades</t>
+          <t>Panela elétrica polimerizadora * estrutura em alumínio* pintura eletrostática;* válvula injetora de ar;* válvula de segurança; borracha de silicone para vedação;* manômetro para controle de pressão;* termômetro e termostato inclinado para melhor visualização;* sistema rápido de abertura e fechamento da tampa;* registro de saída de água;* fundo com pés de borracha;* pressão maxíma de trabalho 60 lbs;* acompanha prensa auxiliar, bico injetor de ar e mangueira de saída de água;* suporta 2 muflas; *aquecimento de 0 á 120ºc.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 20.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 71.0</t>
+          <t>Marca:  PROTECNI</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 1420.0</t>
+          <t>Modelo:  PANELA ELETRICA</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Item: 152 - CLORETO DE SÓDIO (371273)</t>
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 2.465,00</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 4.930,00</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Soro fisiológico 0,9 % estéril frasco 250 ml</t>
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Item: 74 - PANELA PRESSÃO (467231)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 100.0</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 9.0</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 900.0</t>
+          <t>Panela ortodôntica eliminadora de bolhas, estrutura em aluminio. * pintura eletrostática. * borracha de vedação especial. * manômetro para controle de pressão inclinado pata melhor visualização. * sistema rápido de abertura e fechamento da tampa. * válvula injetora de ar, pode ser usada com ou sem água. * não vai ao fogo. * eliminadora de bolhas a pressão 0,5 litro. * dimensões internas: diâmetro 10cm, altura 6cm.</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>Item: 153 - SUGADOR (406292)</t>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  PROTECNI</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  PANELA ORTODONTICA</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Sugador, material pvc, tipo saliva, apresentação pacote c/ 40 unidades, tipo uso estéril, descartável</t>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 1.062,00</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 2.124,00</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 500.0</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 7.68</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 3840.0</t>
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Item: 75 - HIDRÓXIDO DE CÁLCIO (416062)</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Item: 155 - TNT (300805)</t>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Pasta de hidróxido de cálcio c/ pmcc para uso endodôntico, estojo contendo 2 tubetes de 2,7 g de hidróxido de cálcio e 1 tubete com 2,2g de glicerina.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Tnt, em rolo, gramatura 100g/m2, cor branca, largura 1,40m. Rolo de 50 metros</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  FORMULA E ACAO</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  SERINGA 1,76G</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>Quantidade: 20</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 137.0</t>
+          <t>Valor Unitário: R$ 90,00</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 274.0</t>
+          <t>Valor Total: R$ 1.800,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Item: 114 - PORTA-AGULHA INSTRUMENTAL (471145)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Porta agulha instrumental, modelo: castroviejo, tipo ponta: ponta reta, adicional 1: com trava, comprimento total: cerca de 14 cm, material: titânio, esterilidade: esterilizável</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  GOLGRAN</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  CASTROVIEJO RETA 14CM</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 5</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 270,00</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 1.350,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Item: 122 - PROTETOR RADIOLÓGICO (475747)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Protetor plumbífero, tipo avental, uso infantil, blindagem equivalência de 0,5mm pb</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  CSR</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  AVENTAL INFANTIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 610,00</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 1.220,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Item: 142 - SACO PLÁSTICO LIXO (232471)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Saco de lixo hospitalar 100 litros embalagem 100 unidades</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>UF: Pacote 100,00 UN</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  RAVA</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  100LT</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 20</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 71,00</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 1.420,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Item: 152 - CLORETO DE SÓDIO (371273)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Soro fisiológico 0,9 % estéril frasco 250 ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>UF: Bolsa 250,00 ML</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  FRESENIUS KABI</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  250ML</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 100</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 9,00</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 900,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Item: 153 - SUGADOR (406292)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Sugador, material pvc, tipo saliva, apresentação pacote c/ 40 unidades, tipo uso estéril, descartável</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  QLB</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  QLB</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 500</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 7,68</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 3.840,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Item: 155 - TNT (300805)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Tnt, em rolo, gramatura 100g/m2, cor branca, largura 1,40m. Rolo de 50 metros</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  MALIBU</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  TNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 137,00</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 274,00</t>
         </is>
       </c>
     </row>
@@ -1184,52 +1592,52 @@
   <mergeCells count="48">
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A66:C66"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A57:C57"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A85:C85"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A81:C81"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A52:C52"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A93:C93"/>
     <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A77:C77"/>
     <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A82:C82"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A94:C94"/>
     <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A69:C69"/>
     <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A54:C54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/relatorio/PE 90004-2024/DENTARIA_E_DISTRIBUIDORA_HOSPITALAR_PORTO_ALEGRENSE_LTD/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/DENTARIA_E_DISTRIBUIDORA_HOSPITALAR_PORTO_ALEGRENSE_LTD/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 3 - FÓRCEPS ODONTOLÓGICO (413523)</t>
+          <t>Item 3 - FÓRCEPS ODONTOLÓGICO (413523)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 4 - FÓRCEPS ODONTOLÓGICO (413522)</t>
+          <t>Item 4 - FÓRCEPS ODONTOLÓGICO (413522)</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Item: 5 - FÓRCEPS ODONTOLÓGICO (432452)</t>
+          <t>Item 5 - FÓRCEPS ODONTOLÓGICO (432452)</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 6 - FÓRCEPS ODONTOLÓGICO (378164)</t>
+          <t>Item 6 - FÓRCEPS ODONTOLÓGICO (378164)</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Item: 9 - FÓRCEPS ODONTOLÓGICO (413515)</t>
+          <t>Item 9 - FÓRCEPS ODONTOLÓGICO (413515)</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Item: 10 - FÓRCEPS ODONTOLÓGICO (413512)</t>
+          <t>Item 10 - FÓRCEPS ODONTOLÓGICO (413512)</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Item: 11 - FÓRCEPS ODONTOLÓGICO (413510)</t>
+          <t>Item 11 - FÓRCEPS ODONTOLÓGICO (413510)</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Item: 12 - FÓRCEPS ODONTOLÓGICO (413532)</t>
+          <t>Item 12 - FÓRCEPS ODONTOLÓGICO (413532)</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Item: 20 - BISTURI - USO ODONTOLOGICO (373552)</t>
+          <t>Item 20 - BISTURI - USO ODONTOLOGICO (373552)</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Item: 21 - BISTURI - USO ODONTOLOGICO (254362)</t>
+          <t>Item 21 - BISTURI - USO ODONTOLOGICO (254362)</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Item: 34 - HIPOCLORITO DE SÓDIO (431304)</t>
+          <t>Item 34 - HIPOCLORITO DE SÓDIO (431304)</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Item: 45 - CLOREXIDINA DIGLUCONATO (386856)</t>
+          <t>Item 45 - CLOREXIDINA DIGLUCONATO (386856)</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Item: 52 - LIMA USO ODONTOLÓGICO (430452)</t>
+          <t>Item 52 - LIMA USO ODONTOLÓGICO (430452)</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Item: 67 - MAÇARICO SOLDA (479868)</t>
+          <t>Item 67 - MAÇARICO SOLDA (479868)</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Item: 72 - ORGANIZADOR CLÍNICO USO ODONTOLÓGICO (446326)</t>
+          <t>Item 72 - ORGANIZADOR CLÍNICO USO ODONTOLÓGICO (446326)</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Item: 73 - PANELA PRESSÃO (467231)</t>
+          <t>Item 73 - PANELA PRESSÃO (467231)</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Item: 74 - PANELA PRESSÃO (467231)</t>
+          <t>Item 74 - PANELA PRESSÃO (467231)</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Item: 75 - HIDRÓXIDO DE CÁLCIO (416062)</t>
+          <t>Item 75 - HIDRÓXIDO DE CÁLCIO (416062)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Item: 114 - PORTA-AGULHA INSTRUMENTAL (471145)</t>
+          <t>Item 114 - PORTA-AGULHA INSTRUMENTAL (471145)</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Item: 122 - PROTETOR RADIOLÓGICO (475747)</t>
+          <t>Item 122 - PROTETOR RADIOLÓGICO (475747)</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Item: 142 - SACO PLÁSTICO LIXO (232471)</t>
+          <t>Item 142 - SACO PLÁSTICO LIXO (232471)</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Item: 152 - CLORETO DE SÓDIO (371273)</t>
+          <t>Item 152 - CLORETO DE SÓDIO (371273)</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Item: 153 - SUGADOR (406292)</t>
+          <t>Item 153 - SUGADOR (406292)</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Item: 155 - TNT (300805)</t>
+          <t>Item 155 - TNT (300805)</t>
         </is>
       </c>
     </row>
